--- a/HLS_man/COP28/COP28_man_belgium.xlsx
+++ b/HLS_man/COP28/COP28_man_belgium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E40DF-8BFD-44AD-AC43-CC6BBB371FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959183D0-24DA-4782-9901-9586FB2FCB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>COP28_belgium</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -267,22 +261,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-But for that, we need….</t>
-  </si>
-  <si>
-    <t>to scale up the solutions that are in front of our eyes 
-Show what we're already capable of, and create this safe space to accelerate our efforts .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 I thank you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- </t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -295,92 +274,70 @@
 more our people and private sector.</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>implementation</t>
   </si>
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>glboal</t>
-  </si>
-  <si>
     <t>egalitarain</t>
   </si>
   <si>
-    <t xml:space="preserve">Moral judgement on the need to have all, on all levels involved in the decisionmaking. </t>
-  </si>
-  <si>
-    <t>implementation, action</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
     <t xml:space="preserve">Moral judgement on the need conductive environment, where everyone is involved. </t>
   </si>
   <si>
-    <t>mitigation</t>
-  </si>
-  <si>
-    <t>knowledge, technological resources</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moral judgement on the need to enable access to innovations to every person. </t>
   </si>
   <si>
-    <t>incentives</t>
-  </si>
-  <si>
-    <t>multilateral(europe)</t>
-  </si>
-  <si>
     <t>general normative statement</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescription on the need to provide incentives to reach goals of phasing out fossil fuels. </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Europe will obviously not win the Climate race alone. Partnerships are crucial .</t>
   </si>
   <si>
-    <t>implementation, citizens, society</t>
-  </si>
-  <si>
     <t>Egalitarian</t>
   </si>
   <si>
     <t xml:space="preserve">Prescription on the need to work together and to have everyone involved for a common cause. </t>
   </si>
   <si>
-    <t>action, implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moral judgement on the obligation to act. No specific distribution prescribed. </t>
-  </si>
-  <si>
-    <t>ecology, economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moral judgement on the need to take both ecolgy and economy into account. </t>
-  </si>
-  <si>
-    <t>implemenation, solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescription on the need to take on action in order to gain trust. </t>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need to have all, on all levels involved in the decisionmaking. No specific distribution highlighted. </t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>financial resources</t>
+  </si>
+  <si>
+    <t>libertarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription on the need to provide incentives motivated by the idea that the economy should contribute. </t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>But for that, we need….to scale up the solutions that are in front of our eyes 
+Show what we're already capable of, and create this safe space to accelerate our efforts .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription on the need to take on action, no specific motivation or distribution presented. </t>
+  </si>
+  <si>
+    <t>financial resources, technological resources</t>
   </si>
 </sst>
 </file>
@@ -750,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="79" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +718,7 @@
     <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,552 +732,490 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
+      <c r="B30">
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
       </c>
       <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G34" t="s">
         <v>67</v>
       </c>
-      <c r="G30" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
         <v>68</v>
       </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
       <c r="G48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP28/COP28_man_belgium.xlsx
+++ b/HLS_man/COP28/COP28_man_belgium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959183D0-24DA-4782-9901-9586FB2FCB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0FDD0-176D-4A7E-9159-A262AE83A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>COP28_belgium</t>
   </si>
@@ -292,9 +292,6 @@
     <t xml:space="preserve">Moral judgement on the need to enable access to innovations to every person. </t>
   </si>
   <si>
-    <t>general normative statement</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Europe will obviously not win the Climate race alone. Partnerships are crucial .</t>
   </si>
@@ -332,9 +329,6 @@
   <si>
     <t>But for that, we need….to scale up the solutions that are in front of our eyes 
 Show what we're already capable of, and create this safe space to accelerate our efforts .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescription on the need to take on action, no specific motivation or distribution presented. </t>
   </si>
   <si>
     <t>financial resources, technological resources</t>
@@ -709,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="79" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="79" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -796,7 +790,7 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -991,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -1025,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
@@ -1056,16 +1050,16 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
       </c>
       <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
         <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1078,7 +1072,7 @@
     </row>
     <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1148,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>53</v>
@@ -1157,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
         <v>60</v>
-      </c>
-      <c r="G44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1181,7 +1175,7 @@
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,25 +1183,10 @@
     </row>
     <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
